--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_A.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_A.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,38 +578,68 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>『黄金の戦鬼』——それが、次の試練の名前だ。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>『黄金の戦鬼』——それが、次の試練の名前だ。</t>
         </is>
       </c>
     </row>
@@ -621,39 +651,39 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
+          <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
+          <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>narr_4</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
+          <t>（バルガスは苦々しげに首を振る。）</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
+          <t>（バルガスは苦々しげに首を振る。）</t>
         </is>
       </c>
     </row>
@@ -665,17 +695,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>『黄金の戦鬼』——それが、次の試練の名前だ。</t>
+          <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>『黄金の戦鬼』——それが、次の試練の名前だ。</t>
+          <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
         </is>
       </c>
     </row>
@@ -687,171 +717,141 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_6</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
+          <t>お前の強さも、弱さも、全て知っている。お前が次に何をするか、完璧に読んでくる。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
+          <t>お前の強さも、弱さも、全て知っている。お前が次に何をするか、完璧に読んでくる。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>react1_shadow</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>c1_shadow</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>（バルガスは苦々しげに首を振る。）</t>
+          <t>自分自身と戦う……どうすれば勝てる？</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>（バルガスは苦々しげに首を振る。）</t>
+          <t>自分自身と戦う……どうすれば勝てる？</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_ready</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c1_ready</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>覚悟はできている</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>覚悟はできている</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>（無言で影を見つめる）</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>（無言で影を見つめる）</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>react1_shadow</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>お前の強さも、弱さも、全て知っている。お前が次に何をするか、完璧に読んでくる。</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>お前の強さも、弱さも、全て知っている。お前が次に何をするか、完璧に読んでくる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>react1_shadow</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>c1_shadow</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>自分自身と戦う……どうすれば勝てる？</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>自分自身と戦う……どうすれば勝てる？</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>react1_ready</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>c1_ready</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>覚悟はできている</t>
+          <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>覚悟はできている</t>
+          <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>（無言で影を見つめる）</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>（無言で影を見つめる）</t>
+          <t>scene2_zek_revelation</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>react1_shadow</t>
+          <t>react1_ready</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
+          <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
+          <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>react1_ready</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r3</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
+          <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
+          <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
         </is>
       </c>
     </row>
@@ -923,113 +923,173 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_zek_revelation</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Theme");             var data = SoundManager.current.GetData("BGM/Zek_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Theme");             }</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>scene2_zek_revelation</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>（影の中から、ゼクが姿を現す。）</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>（影の中から、ゼクが姿を現す。）</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>scene2_zek_revelation</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Theme");             var data = SoundManager.current.GetData("BGM/Zek_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Theme");             }</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ですが、一つだけ違うものがある。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ですが、一つだけ違うものがある。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>（ゼクは意味深に微笑む。）</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>（ゼクは意味深に微笑む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>zek_4</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>zek_5</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>（影の中から、ゼクが姿を現す。）</t>
+          <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>（影の中から、ゼクが姿を現す。）</t>
+          <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
         </is>
       </c>
     </row>
@@ -1041,105 +1101,105 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>zek_1</t>
+          <t>zek_6</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
+          <t>……まあ、私としては、どちらが勝っても『最高の瞬間』を記録できるので、気楽に見物させてもらいますよ。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
+          <t>……まあ、私としては、どちらが勝っても『最高の瞬間』を記録できるので、気楽に見物させてもらいますよ。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>react2_understand</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>zek_2</t>
+          <t>c2_understand</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
+          <t>……変化し続けることが、答えか</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
+          <t>……変化し続けることが、答えか</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>react2_fear</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>zek_3</t>
+          <t>c2_fear</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>ですが、一つだけ違うものがある。</t>
+          <t>自分自身を超えられるか……</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>ですが、一つだけ違うものがある。</t>
+          <t>自分自身を超えられるか……</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>c2_nod</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>（ゼクは意味深に微笑む。）</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>（ゼクは意味深に微笑む。）</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>zek_4</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>react2_understand</t>
         </is>
       </c>
     </row>
@@ -1151,127 +1211,67 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>zek_5</t>
+          <t>zek_r1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
+          <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
+          <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>scene3_lily_blessing</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>react2_fear</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>zek_6</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>……まあ、私としては、どちらが勝っても『最高の瞬間』を記録できるので、気楽に見物させてもらいますよ。</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>……まあ、私としては、どちらが勝っても『最高の瞬間』を記録できるので、気楽に見物させてもらいますよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>react2_understand</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>c2_understand</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>……変化し続けることが、答えか</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>……変化し続けることが、答えか</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>react2_fear</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>c2_fear</t>
+          <t>zek_r2</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>自分自身を超えられるか……</t>
+          <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>自分自身を超えられるか……</t>
+          <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>scene3_lily_blessing</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>react2_understand</t>
+          <t>react2_nod</t>
         </is>
       </c>
     </row>
@@ -1283,17 +1283,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>zek_r1</t>
+          <t>zek_r3</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
+          <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
+          <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
         </is>
       </c>
     </row>
@@ -1307,193 +1307,283 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>react2_fear</t>
+          <t>scene3_lily_blessing</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>zek_r2</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>scene3_lily_blessing</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>zek_r3</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
+          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
+          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>scene3_lily_blessing</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>……それは、『繋がり』です。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>……それは、『繋がり』です。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>scene3_lily_blessing</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの胸に手を当てる。）</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの胸に手を当てる。）</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
+        </is>
+      </c>
     </row>
     <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>react3_promise</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>c3_promise</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>……必ず、勝って戻る</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>……必ず、勝って戻る</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>react3_confident</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>c3_confident</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
+          <t>俺は、俺を超えてみせる</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
+          <t>俺は、俺を超えてみせる</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>react3_hold</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>c3_hold</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
+          <t>（リリィの手を握り返す）</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
+          <t>（リリィの手を握り返す）</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>react3_promise</t>
         </is>
       </c>
     </row>
@@ -1505,454 +1595,256 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>……それは、『繋がり』です。</t>
+          <t>……その言葉、信じています。</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>……それは、『繋がり』です。</t>
+          <t>……その言葉、信じています。</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>react3_confident</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの胸に手を当てる。）</t>
+          <t>ええ、あなたなら……きっと。</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの胸に手を当てる。）</t>
+          <t>ええ、あなたなら……きっと。</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>react3_hold</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>react3_promise</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>c3_promise</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>……必ず、勝って戻る</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>……必ず、勝って戻る</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>react3_confident</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>c3_confident</t>
+          <t>lily_r6</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>俺は、俺を超えてみせる</t>
+          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>俺は、俺を超えてみせる</t>
+          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>react3_hold</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>c3_hold</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>（リリィの手を握り返す）</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>（リリィの手を握り返す）</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>react3_promise</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>……その言葉、信じています。</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>……その言葉、信じています。</t>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Shadow_Self");             var data = SoundManager.current.GetData("BGM/Battle_Shadow_Self");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Shadow_Self");             }</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>react3_confident</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>lily_r5</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>ええ、あなたなら……きっと。</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>ええ、あなたなら……きっと。</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>react3_hold</t>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>lily_r6</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>（観客席から、異様な熱狂が渦巻く——自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>（観客席から、異様な熱狂が渦巻く——自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Shadow_Self");             var data = SoundManager.current.GetData("BGM/Battle_Shadow_Self");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Shadow_Self");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>narr_12</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>（観客席から、異様な熱狂が渦巻く——自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>（観客席から、異様な熱狂が渦巻く——自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="D95" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_A.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_A.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,194 +488,164 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
+    <row r="11">
+      <c r="F11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>（ロビーに足を踏み入れた瞬間、あなたは自分の影が妙に濃いことに気づく。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーに足を踏み入れた瞬間、あなたは自分の影が妙に濃いことに気づく。）</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
+    <row r="12">
+      <c r="F12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>（それは、松明の光に関係なく、まるで意志を持つかのように蠢いている。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（それは、松明の光に関係なく、まるで意志を持つかのように蠢いている。）</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
+    <row r="13">
+      <c r="F13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>（バルガスが厳しい表情で近づいてくる。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（バルガスが厳しい表情で近づいてくる。）</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t>scene1_shadow_warning</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>scene1_shadow_warning</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="16">
+      <c r="D16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
+    <row r="17">
+      <c r="D17" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
+    <row r="18">
+      <c r="D18" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>『黄金の戦鬼』——それが、次の試練の名前だ。</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>『黄金の戦鬼』——それが、次の試練の名前だ。</t>
         </is>
       </c>
     </row>
@@ -687,39 +657,39 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
+          <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
+          <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>（バルガスは苦々しげに首を振る。）</t>
+          <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>（バルガスは苦々しげに首を振る。）</t>
+          <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
         </is>
       </c>
     </row>
@@ -731,17 +701,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
+          <t>『黄金の戦鬼』ーーそれが、次の試練の名前だ。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
+          <t>『黄金の戦鬼』ーーそれが、次の試練の名前だ。</t>
         </is>
       </c>
     </row>
@@ -753,141 +723,171 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>（バルガスは苦々しげに首を振る。）</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>（バルガスは苦々しげに首を振る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>お前の強さも、弱さも、全て知っている。お前が次に何をするか、完璧に読んでくる。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>お前の強さも、弱さも、全て知っている。お前が次に何をするか、完璧に読んでくる。</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
+    <row r="26">
+      <c r="B26" t="inlineStr">
         <is>
           <t>react1_shadow</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>c1_shadow</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>自分自身と戦う……どうすれば勝てる？</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>自分自身と戦う……どうすれば勝てる？</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>react1_ready</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>c1_ready</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>覚悟はできている</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>覚悟はできている</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>（無言で影を見つめる）</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>（無言で影を見つめる）</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>react1_shadow</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>scene2_zek_revelation</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>（無言で影を見つめる）</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>（無言で影を見つめる）</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>react1_ready</t>
+          <t>react1_shadow</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
+          <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
+          <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>react1_ready</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
+          <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
+          <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
         </is>
       </c>
     </row>
@@ -959,165 +959,135 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
           <t>scene2_zek_revelation</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Theme");             var data = SoundManager.current.GetData("BGM/Zek_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Theme");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
     <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>scene2_zek_revelation</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="D39" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Theme");             var data = SoundManager.current.GetData("BGM/Zek_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Theme");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが姿を現す。）</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>（影の中から、ゼクが姿を現す。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>zek_3</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>ですが、一つだけ違うものがある。</t>
+          <t>（影の中から、ゼクが姿を現す。）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>ですが、一つだけ違うものがある。</t>
+          <t>（影の中から、ゼクが姿を現す。）</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>zek_1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>（ゼクは意味深に微笑む。）</t>
+          <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>（ゼクは意味深に微笑む。）</t>
+          <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
         </is>
       </c>
     </row>
@@ -1129,17 +1099,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>zek_4</t>
+          <t>zek_2</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
+          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
+          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
         </is>
       </c>
     </row>
@@ -1151,163 +1121,193 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>zek_5</t>
+          <t>zek_3</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
+          <t>ですが、一つだけ違うものがある。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
+          <t>ですが、一つだけ違うものがある。</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>（ゼクは意味深に微笑む。）</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>（ゼクは意味深に微笑む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="inlineStr">
+        <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>zek_4</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>zek_5</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>zek_6</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>……まあ、私としては、どちらが勝っても『最高の瞬間』を記録できるので、気楽に見物させてもらいますよ。</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>……まあ、私としては、どちらが勝っても『最高の瞬間』を記録できるので、気楽に見物させてもらいますよ。</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
+    <row r="51">
+      <c r="B51" t="inlineStr">
         <is>
           <t>react2_understand</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>c2_understand</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>……変化し続けることが、答えか</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>……変化し続けることが、答えか</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
+    <row r="52">
+      <c r="B52" t="inlineStr">
         <is>
           <t>react2_fear</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>c2_fear</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>自分自身を超えられるか……</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>自分自身を超えられるか……</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>react2_understand</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>zek_r1</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>scene3_lily_blessing</t>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>c2_nod</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>react2_fear</t>
+          <t>react2_understand</t>
         </is>
       </c>
     </row>
@@ -1319,17 +1319,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>zek_r2</t>
+          <t>zek_r1</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
+          <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
+          <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>react2_nod</t>
+          <t>react2_fear</t>
         </is>
       </c>
     </row>
@@ -1355,17 +1355,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>zek_r3</t>
+          <t>zek_r2</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
+          <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
+          <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
         </is>
       </c>
     </row>
@@ -1379,143 +1379,113 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>zek_r3</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
           <t>scene3_lily_blessing</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>scene3_lily_blessing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>……それは、『繋がり』です。</t>
+          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>……それは、『繋がり』です。</t>
+          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
         </is>
       </c>
     </row>
@@ -1527,17 +1497,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
+          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
+          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
         </is>
       </c>
     </row>
@@ -1549,39 +1519,39 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
+          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
+          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの胸に手を当てる。）</t>
+          <t>……それは、『繋がり』です。</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの胸に手を当てる。）</t>
+          <t>……それは、『繋がり』です。</t>
         </is>
       </c>
     </row>
@@ -1593,141 +1563,171 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの胸に手を当てる。）</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの胸に手を当てる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
+    <row r="76">
+      <c r="B76" t="inlineStr">
         <is>
           <t>react3_promise</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>c3_promise</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>……必ず、勝って戻る</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>……必ず、勝って戻る</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
+    <row r="77">
+      <c r="B77" t="inlineStr">
         <is>
           <t>react3_confident</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>c3_confident</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>俺は、俺を超えてみせる</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>俺は、俺を超えてみせる</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>react3_hold</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>c3_hold</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>（リリィの手を握り返す）</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>（リリィの手を握り返す）</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>react3_promise</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>……その言葉、信じています。</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>……その言葉、信じています。</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>battle_start</t>
+          <t>react3_hold</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>c3_hold</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>（リリィの手を握り返す）</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>（リリィの手を握り返す）</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>react3_confident</t>
+          <t>react3_promise</t>
         </is>
       </c>
     </row>
@@ -1739,17 +1739,17 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>lily_r5</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>ええ、あなたなら……きっと。</t>
+          <t>……その言葉、信じています。</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>ええ、あなたなら……きっと。</t>
+          <t>……その言葉、信じています。</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>react3_hold</t>
+          <t>react3_confident</t>
         </is>
       </c>
     </row>
@@ -1775,17 +1775,17 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>lily_r6</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
+          <t>ええ、あなたなら……きっと。</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
+          <t>ええ、あなたなら……きっと。</t>
         </is>
       </c>
     </row>
@@ -1799,70 +1799,55 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>react3_hold</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>lily_r6</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Shadow_Self");             var data = SoundManager.current.GetData("BGM/Battle_Shadow_Self");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Shadow_Self");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
-        </is>
-      </c>
-    </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Shadow_Self");             var data = SoundManager.current.GetData("BGM/Battle_Shadow_Self");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Shadow_Self");             }</t>
         </is>
       </c>
     </row>
@@ -1874,17 +1859,17 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_9</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
+          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
+          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1881,17 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>narr_10</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
+          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
+          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
         </is>
       </c>
     </row>
@@ -1925,34 +1910,85 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>（観客席から、異様な熱狂が渦巻く——自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
+          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>（観客席から、異様な熱狂が渦巻く——自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
+          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", "sukutsu_arena_master");</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>（観客席から、異様な熱狂が渦巻くーー自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>（観客席から、異様な熱狂が渦巻くーー自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", "sukutsu_arena_master");</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_A.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_A.xlsx
@@ -1568,12 +1568,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
+          <t>あなたがバルガスさんと飲んだ酒杯、私と交わした言葉、ゼクとの駆け引き……それらも全て、あなたの『今』を形作っている。</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>あなたがバルガスさんから学んだ哲学、私と交わした言葉、ゼクとの駆け引き……それらは全て、あなたの『今』を形作っている。</t>
+          <t>あなたがバルガスさんと飲んだ酒杯、私と交わした言葉、ゼクとの駆け引き……それらも全て、あなたの『今』を形作っている。</t>
         </is>
       </c>
     </row>
@@ -1590,12 +1590,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
+          <t>影はあなたの『力』をコピーできても、あなたの『絆の力』まではコピーできません。</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>影はあなたの『力』をコピーできても、あなたの『絆』まではコピーできません。</t>
+          <t>影はあなたの『力』をコピーできても、あなたの『絆の力』まではコピーできません。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_A.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_A.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,114 +491,114 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーに足を踏み入れた瞬間、あなたは自分の影が妙に濃いことに気づく。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（ロビーに足を踏み入れた瞬間、あなたは自分の影が妙に濃いことに気づく。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（それは、松明の光に関係なく、まるで意志を持つかのように蠢いている。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>（それは、松明の光に関係なく、まるで意志を持つかのように蠢いている。）</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（バルガスが厳しい表情で近づいてくる。）</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>（バルガスが厳しい表情で近づいてくる。）</t>
         </is>
@@ -614,190 +619,190 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>……おい、銀翼。お前、自分の影をよく見てみろ。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>観客どもの『注目』が、お前に集まりすぎたんだ。その結果、お前の影から……『もう一人のお前』が生まれようとしている。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>『黄金の戦鬼』ーーそれが、次の試練の名前だ。</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>『黄金の戦鬼』ーーそれが、次の試練の名前だ。</t>
+          <t>『戦鬼』ーーそれが、次の試練の名前だ。</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>『戦鬼』ーーそれが、次の試練の名前だ。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>お前が積み上げてきた全ての技術、全ての経験、全ての殺意……それを完璧にコピーした存在と戦うことになる。</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>（バルガスは苦々しげに首を振る。）</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>（バルガスは苦々しげに首を振る。）</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>こいつは、ヌルとは違う意味で厄介だ。虚無には『意味』で対抗できた。だが、影はお前自身だ。</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>お前の強さも、弱さも、全て知っている。お前が次に何をするか、完璧に読んでくる。</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>お前の強さも、弱さも、全て知っている。お前が次に何をするか、完璧に読んでくる。</t>
         </is>
@@ -809,22 +814,22 @@
           <t>react1_shadow</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>c1_shadow</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>自分自身と戦う……どうすれば勝てる？</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>自分自身と戦う……どうすれば勝てる？</t>
         </is>
@@ -836,22 +841,22 @@
           <t>react1_ready</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>c1_ready</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>覚悟はできている</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>覚悟はできている</t>
         </is>
@@ -863,22 +868,22 @@
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>c1_silent</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>（無言で影を見つめる）</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>（無言で影を見つめる）</t>
         </is>
@@ -892,22 +897,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>……それは、俺にも分からねえ。だが、お前は今まで、いつも予想を裏切ってきた。それが、答えかもしれねえな。</t>
         </is>
@@ -928,22 +933,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>……ハッ、その顔だ。その目を忘れるなよ。</t>
         </is>
@@ -964,22 +969,22 @@
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>balgas_r3</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>……そうだ。よく見ておけ。あれが、お前の『可能性』の一つだ。</t>
         </is>
@@ -1000,224 +1005,224 @@
       </c>
     </row>
     <row r="39">
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Theme");             var data = SoundManager.current.GetData("BGM/Zek_Theme");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Theme");             }</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>（影の中から、ゼクが姿を現す。）</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>（影の中から、ゼクが姿を現す。）</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>クク……影の自己との対決ですか。実に興味深い試練ですね。</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
-        </is>
-      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>あの『黄金の戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
+          <t>あの『戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>あの『戦鬼』は、あなたの『現在』を完璧に写し取った鏡。技術、反射、経験……全てが同じです。</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>ですが、一つだけ違うものがある。</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>ですが、一つだけ違うものがある。</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>（ゼクは意味深に微笑む。）</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>（ゼクは意味深に微笑む。）</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>zek_4</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>影には『未来』がない。あなたが次の瞬間に何を選ぶか……その『可能性』だけは、影にはコピーできない。</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>zek_5</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>あなたが今まで誰かを助け、誰かに助けられ、その度に『変化』してきたこと……それが、影との唯一の違いです。</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>zek_6</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>……まあ、私としては、どちらが勝っても『最高の瞬間』を記録できるので、気楽に見物させてもらいますよ。</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>……まあ、私としては、どちらが勝っても『最高の瞬間』を記録できるので、気楽に見物させてもらいますよ。</t>
         </is>
@@ -1229,22 +1234,22 @@
           <t>react2_understand</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>c2_understand</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>……変化し続けることが、答えか</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>……変化し続けることが、答えか</t>
         </is>
@@ -1256,22 +1261,22 @@
           <t>react2_fear</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>c2_fear</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>自分自身を超えられるか……</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>自分自身を超えられるか……</t>
         </is>
@@ -1283,22 +1288,22 @@
           <t>react2_nod</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>c2_nod</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -1312,22 +1317,22 @@
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>zek_r1</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>ふふ、その通りです。過去の自分を超え続けること……それが、真の成長というものですから。</t>
         </is>
@@ -1348,22 +1353,22 @@
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>zek_r2</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>クク、恐れるのは当然です。自分が自分の最大の敵になるのですから。……でも、それを乗り越えた時、あなたは本物になる。</t>
         </is>
@@ -1384,22 +1389,22 @@
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>zek_r3</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>……無口ですが、覚悟は決まったようですね。期待していますよ。</t>
         </is>
@@ -1420,575 +1425,563 @@
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="G68" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" t="inlineStr">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>……それは、『繋がり』です。</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>……それは、『繋がり』です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>あなたがバルガスさんと飲んだ酒杯、私と交わした言葉、ゼクとの駆け引き……それらも全て、あなたの『今』を形作っている。</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>あなたがバルガスさんと飲んだ酒杯、私と交わした言葉、ゼクとの駆け引き……それらも全て、あなたの『今』を形作っている。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>影はあなたの『力』をコピーできても、あなたの『絆の力』まではコピーできません。</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>影はあなたの『力』をコピーできても、あなたの『絆の力』まではコピーできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>（リリィが静かに近づき、あなたの手を取る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの胸に手を当てる。）</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>（リリィは、あなたの胸に手を当てる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="G74" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>……あなたの影は、確かに強い。あなたと同じだけの力を持っている。</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>でも、影には一つ、決定的に欠けているものがあります。</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>……それは、『繋がり』です。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>……それは、『繋がり』です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>あなたがバルガスさんと飲んだ酒杯、私と交わした言葉、ゼクとの駆け引き……それらも全て、あなたの『今』を形作っている。</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>あなたがバルガスさんと飲んだ酒杯、私と交わした言葉、ゼクとの駆け引き……それらも全て、あなたの『今』を形作っている。</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>影はあなたの『力』をコピーできても、あなたの『絆の力』まではコピーできません。</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>影はあなたの『力』をコピーできても、あなたの『絆の力』まではコピーできません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの胸に手を当てる。）</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>（リリィは、あなたの胸に手を当てる。）</t>
+          <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>lily_6</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>react3_promise</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
+          <t>c3_promise</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ここに、私たちの想いがあります。……それを、忘れないでくださいね。</t>
+          <t>……必ず、勝って戻る</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>……必ず、勝って戻る</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>react3_promise</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
+          <t>react3_confident</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>c3_promise</t>
-        </is>
-      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>……必ず、勝って戻る</t>
+          <t>c3_confident</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>……必ず、勝って戻る</t>
+          <t>俺は、俺を超えてみせる</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>俺は、俺を超えてみせる</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
+          <t>react3_hold</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>c3_hold</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>（リリィの手を握り返す）</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>（リリィの手を握り返す）</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>react3_promise</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>lily_r4</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>……その言葉、信じています。</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>……その言葉、信じています。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>react3_confident</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>c3_confident</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>俺は、俺を超えてみせる</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>俺は、俺を超えてみせる</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>lily_r5</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ええ、あなたなら……きっと。</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ええ、あなたなら……きっと。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>react3_hold</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>c3_hold</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>（リリィの手を握り返す）</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>（リリィの手を握り返す）</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>react3_promise</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="F80" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="G85" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>……その言葉、信じています。</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>……その言葉、信じています。</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>lily_r6</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
         <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>react3_confident</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>lily_r5</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>ええ、あなたなら……きっと。</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>ええ、あなたなら……きっと。</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>react3_hold</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>lily_r6</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。この温もりを、忘れないで。</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>battle_start</t>
-        </is>
-      </c>
-    </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Shadow_Self");             var data = SoundManager.current.GetData("BGM/Battle_Shadow_Self");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Shadow_Self");             }</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="D89" t="inlineStr">
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>（観客席から、異様な熱狂が渦巻くーー自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>（観客席から、異様な熱狂が渦巻くーー自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Shadow_Self");             var data = SoundManager.current.GetData("BGM/Battle_Shadow_Self");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Shadow_Self");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>（闘技場の中央に足を踏み入れた瞬間、空気が凍りつく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>（そこに立っていたのは、まさに鏡像。あなたと寸分違わぬ姿をした、黄金色に輝く戦士。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>（その瞳は、あなたと同じ光を湛えながらも、どこか虚ろだ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>narr_12</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>（影が剣を構える。その動作は、あなたがこれから行おうとした動作と、寸分違わず一致していた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
       <c r="F96" t="inlineStr">
         <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>（観客席から、異様な熱狂が渦巻くーー自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>（観客席から、異様な熱狂が渦巻くーー自分自身との決闘。これほど『面白い』見世物は、アリーナの歴史にも稀だろう。）</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="D98" t="inlineStr">
         <is>
           <t>end</t>
         </is>
